--- a/datentool_backend/indicators/tests/testdata/Haltestellen_errors.xlsx
+++ b/datentool_backend/indicators/tests/testdata/Haltestellen_errors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\bule_datentool\datentool_backend\indicators\tests\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B656A1-ABC6-42A5-A324-E67C04746D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B2F5D0-76D9-4A9E-A34D-406A73FA327B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0C780C06-3521-4159-9AAB-AD1FD9D2C160}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>Lat</t>
   </si>
   <si>
-    <t>Long</t>
-  </si>
-  <si>
     <t>Längengrad in WGS84, Komma als Dezimaltrennner</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>Krankenhaus</t>
+  </si>
+  <si>
+    <t>Lon</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,7 +487,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -496,21 +496,21 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -518,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3">
         <v>53.82</v>
@@ -532,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3">
         <v>53.83</v>
@@ -546,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3">
         <v>53.83</v>
@@ -560,7 +560,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3">
         <v>53.84</v>
@@ -570,7 +570,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Längengrad (Longitude), WGS 84" error="Bitte einen Zahlenwert zwischen -180 und 180 eingeben." sqref="D3:D1048576" xr:uid="{B8304BE5-EDF5-4165-A49D-2CAAA8AAC311}">
       <formula1>-180</formula1>
       <formula2>180</formula2>
